--- a/trunk/documentation/2 requirement/software-list.xlsx
+++ b/trunk/documentation/2 requirement/software-list.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="465" windowWidth="19200" windowHeight="10515"/>
+    <workbookView xWindow="11985" yWindow="-15" windowWidth="12030" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="SW 구성 현황" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'SW 구성 현황'!$A$1:$H$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'SW 구성 현황'!$A$1:$H$114</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="166">
   <si>
     <t>대분류</t>
   </si>
@@ -607,6 +607,42 @@
   </si>
   <si>
     <t>Anyframe Enterprise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise Server Edition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IBM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chakra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11g Enterprise Edition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,13 +1109,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H62" sqref="H62"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1088,7 +1124,7 @@
     <col min="2" max="2" width="17.25" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.25" style="4" bestFit="1" customWidth="1"/>
@@ -2357,15 +2393,19 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="F67" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
@@ -2374,16 +2414,12 @@
         <v>69</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="6" t="s">
-        <v>150</v>
-      </c>
+      <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-      <c r="F68" s="6" t="s">
-        <v>153</v>
-      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
@@ -2396,11 +2432,11 @@
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -2414,11 +2450,11 @@
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -2432,7 +2468,7 @@
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
@@ -2446,23 +2482,25 @@
         <v>69</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="F72" s="6" t="s">
+        <v>154</v>
+      </c>
       <c r="G72" s="6"/>
-      <c r="H72" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="6"/>
@@ -2470,7 +2508,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -2478,88 +2516,84 @@
         <v>69</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
+      <c r="H74" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="D75" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="G75" s="6"/>
-      <c r="H75" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
+      <c r="H77" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C78" s="5"/>
-      <c r="D78" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
@@ -2568,65 +2602,75 @@
         <v>67</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
-      <c r="H79" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="G80" s="6"/>
-      <c r="H80" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="G81" s="6"/>
-      <c r="H81" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>67</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -2636,7 +2680,7 @@
         <v>67</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="6"/>
@@ -2644,7 +2688,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2652,82 +2696,86 @@
         <v>67</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C85" s="5"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="F87" s="6"/>
       <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
+      <c r="H87" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
+      <c r="H88" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
@@ -2752,63 +2800,63 @@
         <v>20</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
-      <c r="H90" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="F91" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="G91" s="6"/>
-      <c r="H91" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
-      <c r="H92" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -2816,92 +2864,94 @@
         <v>20</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>49</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C94" s="5"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="6" t="s">
-        <v>118</v>
-      </c>
+      <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="H95" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="H96" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="5"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="H97" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="H98" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D99" s="6"/>
+      <c r="B99" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -2911,12 +2961,10 @@
       <c r="A100" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="B100" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C100" s="5"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -2931,7 +2979,7 @@
         <v>11</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -2947,7 +2995,7 @@
         <v>11</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
@@ -2959,10 +3007,12 @@
       <c r="A103" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C103" s="5"/>
+      <c r="B103" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -2974,10 +3024,10 @@
         <v>24</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
@@ -2990,10 +3040,10 @@
         <v>24</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
@@ -3005,10 +3055,12 @@
       <c r="A106" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C106" s="5"/>
+      <c r="B106" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -3020,7 +3072,7 @@
         <v>24</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="6"/>
@@ -3030,13 +3082,15 @@
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C108" s="5"/>
+      <c r="B108" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -3044,44 +3098,102 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>33</v>
+      <c r="A109" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>119</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B113" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D113" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D114" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>